--- a/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>Merhaba Dünya</t>
   </si>
